--- a/list.xlsx
+++ b/list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\钟正庭\Leetcode\challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{465C51C4-8587-469D-9362-36C702C6EFCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A648E60-FE1A-4B9C-8B89-507DEA10AD2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{E4037F38-F66C-4A8D-A32F-E393EE86A035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>题目编号</t>
   </si>
@@ -233,6 +233,66 @@
   </si>
   <si>
     <t>表示出个千百位数字的罗马对应，使用array表示</t>
+  </si>
+  <si>
+    <t>求一排列的下一排列</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>一个从小到大排序的数组被首尾相接旋转了若干次，然后给一个target，问target在旋转后的数组中是否出现过，没有返回-1，出现过返回旋转后数组的下标</t>
+  </si>
+  <si>
+    <t>二分</t>
+  </si>
+  <si>
+    <t>在一个有序数组中，问target是否出现过，如果没出现过，返回[-1,-1]，否则返回该数第一次出现和最后一次出现的下标</t>
+  </si>
+  <si>
+    <t>给一个数独，问当前状态是否合法</t>
+  </si>
+  <si>
+    <t>模拟</t>
+  </si>
+  <si>
+    <t>给一个数组和一个target，数组里的数可以无限次重复取，要求输出所有取出的数字之和恰好等于target的方案</t>
+  </si>
+  <si>
+    <t>O(2^(mlogm))</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/</t>
+  </si>
+  <si>
+    <t>从尾部开始检测，找到第一个可调整的位置，在可调整位置之后找到比可调整位置更大的最小的数进行替换，并将可调整位置之后按照顺序排列</t>
+  </si>
+  <si>
+    <t>直接二分搜索，并对中间点进行判断，找到单调的区间</t>
+  </si>
+  <si>
+    <t>进行两次二分搜索，分别找到上界和下界</t>
+  </si>
+  <si>
+    <t>检查行，列和九宫格规则</t>
+  </si>
+  <si>
+    <t>递归搜索</t>
   </si>
 </sst>
 </file>
@@ -295,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -321,6 +381,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6168902D-3E86-4B68-B60B-E3EE463BF345}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -975,6 +1044,106 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="11">
+        <v>31</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75">
+      <c r="A18" s="11">
+        <v>33</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60">
+      <c r="A19" s="11">
+        <v>34</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="11">
+        <v>39</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -994,8 +1163,13 @@
     <hyperlink ref="B14" r:id="rId13" xr:uid="{E6BE4A33-E14D-4305-889A-9E333FF72E82}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{A6DA8C11-4C35-4D6D-811D-F02AA6D4B43B}"/>
     <hyperlink ref="B16" r:id="rId15" xr:uid="{BE969D32-D3FB-4F6C-8B15-CACC04B21487}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{F8E46F4A-E3B8-41D4-BD4F-2BE3426D2CB9}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{3A6FBCD7-0E63-4B96-8401-F473319B3C54}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{96D1EDDC-8CCA-4AA2-A2F4-D8A0E815D1EE}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{ED8CBDDA-D5EC-4DF0-BDD6-657AEC7EFF20}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{98C12B26-66CD-44F4-82E0-BAE49D5D939A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>